--- a/stock_report_22-12-11 .xlsx
+++ b/stock_report_22-12-11 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28800" yWindow="500" windowWidth="11800" windowHeight="15900" tabRatio="618" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -668,10 +668,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:R22"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -754,9 +754,8 @@
           <t>알파벳</t>
         </is>
       </c>
-      <c r="C4" s="27">
-        <f>3030.93/20</f>
-        <v/>
+      <c r="C4" s="27" t="n">
+        <v>151.55</v>
       </c>
       <c r="D4" s="27">
         <f>C4*0.9</f>
@@ -784,7 +783,7 @@
         </is>
       </c>
       <c r="C5" s="27" t="n">
-        <v>346.47</v>
+        <v>313.3</v>
       </c>
       <c r="D5" s="27">
         <f>C5*0.9</f>
@@ -810,7 +809,7 @@
         </is>
       </c>
       <c r="C6" s="27" t="n">
-        <v>414.5</v>
+        <v>402.67</v>
       </c>
       <c r="D6" s="27">
         <f>C6*0.9</f>
@@ -862,7 +861,7 @@
         </is>
       </c>
       <c r="C8" s="27" t="n">
-        <v>181.07</v>
+        <v>186.62</v>
       </c>
       <c r="D8" s="27">
         <f>C8*0.9</f>
@@ -888,7 +887,7 @@
         </is>
       </c>
       <c r="C9" s="27" t="n">
-        <v>895.9299999999999</v>
+        <v>817.3</v>
       </c>
       <c r="D9" s="27">
         <f>C9*0.9</f>
@@ -907,398 +906,376 @@
         <v/>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>404.58</v>
+      </c>
+      <c r="D10" s="27">
+        <f>C10*0.9</f>
+        <v/>
+      </c>
+      <c r="E10" s="27">
+        <f>C10*0.8</f>
+        <v/>
+      </c>
+      <c r="F10" s="27">
+        <f>C10*0.7</f>
+        <v/>
+      </c>
+      <c r="G10" s="27">
+        <f>C10*0.6</f>
+        <v/>
+      </c>
+    </row>
     <row r="11">
-      <c r="B11" s="20" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="D11" s="27">
+        <f>C11*0.9</f>
+        <v/>
+      </c>
+      <c r="E11" s="27">
+        <f>C11*0.8</f>
+        <v/>
+      </c>
+      <c r="F11" s="27">
+        <f>C11*0.7</f>
+        <v/>
+      </c>
+      <c r="G11" s="27">
+        <f>C11*0.6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="C12" s="27" t="n">
+        <v>479.98</v>
+      </c>
+      <c r="D12" s="27">
+        <f>C12*0.9</f>
+        <v/>
+      </c>
+      <c r="E12" s="27">
+        <f>C12*0.8</f>
+        <v/>
+      </c>
+      <c r="F12" s="27">
+        <f>C12*0.7</f>
+        <v/>
+      </c>
+      <c r="G12" s="27">
+        <f>C12*0.6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>9월</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>시작가</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>하락률</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>현재가</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>하락률</t>
         </is>
       </c>
-      <c r="G11" s="9" t="inlineStr">
+      <c r="G14" s="9" t="inlineStr">
         <is>
           <t>내수익률</t>
         </is>
       </c>
-      <c r="I11" s="20" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="J11" s="20" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="17" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>애플</t>
         </is>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C15" s="27" t="n">
         <v>157.96</v>
       </c>
-      <c r="D12" s="10">
-        <f>(C12-C3)/C3</f>
-        <v/>
-      </c>
-      <c r="E12" s="27" t="n">
-        <v>123</v>
-      </c>
-      <c r="F12" s="10">
-        <f>(E12-C3)/C3</f>
-        <v/>
-      </c>
-      <c r="G12" s="10" t="n">
+      <c r="D15" s="10">
+        <f>(C15-C3)/C3</f>
+        <v/>
+      </c>
+      <c r="E15" s="27" t="n">
+        <v>142.16</v>
+      </c>
+      <c r="F15" s="10">
+        <f>(E15-C3)/C3</f>
+        <v/>
+      </c>
+      <c r="G15" s="10" t="n">
         <v>-0.16</v>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>돈복사가능</t>
         </is>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J15" s="7" t="n">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="17" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="17" t="inlineStr">
         <is>
           <t>알파벳</t>
         </is>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C16" s="27" t="n">
         <v>109.74</v>
       </c>
-      <c r="D13" s="10">
-        <f>(C13-C4)/C4</f>
-        <v/>
-      </c>
-      <c r="E13" s="27" t="n">
-        <v>94.93000000000001</v>
-      </c>
-      <c r="F13" s="10">
-        <f>(E13-C4)/C4</f>
-        <v/>
-      </c>
-      <c r="G13" s="7" t="n">
+      <c r="D16" s="10">
+        <f>(C16-C4)/C4</f>
+        <v/>
+      </c>
+      <c r="E16" s="27" t="n">
+        <v>92.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f>(E16-C4)/C4</f>
+        <v/>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>-0.12</v>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>감사하다</t>
         </is>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J16" s="7" t="n">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="13" t="inlineStr">
+    <row r="17">
+      <c r="B17" s="13" t="inlineStr">
         <is>
           <t>엔비디아</t>
         </is>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C17" s="27" t="n">
         <v>139.37</v>
       </c>
-      <c r="D14" s="10">
-        <f>(C14-C5)/C5</f>
-        <v/>
-      </c>
-      <c r="E14" s="32" t="n">
-        <v>128.96</v>
-      </c>
-      <c r="F14" s="10">
-        <f>(E14-C5)/C5</f>
-        <v/>
-      </c>
-      <c r="G14" s="7" t="n">
+      <c r="D17" s="10">
+        <f>(C17-C5)/C5</f>
+        <v/>
+      </c>
+      <c r="E17" s="32" t="n">
+        <v>170.01</v>
+      </c>
+      <c r="F17" s="10">
+        <f>(E17-C5)/C5</f>
+        <v/>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>-0.49</v>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I17" s="6" t="inlineStr">
         <is>
           <t>인생역전</t>
         </is>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J17" s="7" t="n">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="13" t="inlineStr">
+    <row r="18">
+      <c r="B18" s="13" t="inlineStr">
         <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C18" s="27" t="n">
         <v>277.16</v>
       </c>
-      <c r="D15" s="10">
-        <f>(C15-C6)/C6</f>
-        <v/>
-      </c>
-      <c r="E15" s="27" t="n">
-        <v>224.64</v>
-      </c>
-      <c r="F15" s="10">
-        <f>(E15-C6)/C6</f>
-        <v/>
-      </c>
-      <c r="G15" s="7" t="n">
+      <c r="D18" s="10">
+        <f>(C18-C6)/C6</f>
+        <v/>
+      </c>
+      <c r="E18" s="27" t="n">
+        <v>179.05</v>
+      </c>
+      <c r="F18" s="10">
+        <f>(E18-C6)/C6</f>
+        <v/>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>-0.25</v>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>기회</t>
         </is>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J18" s="7" t="n">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="16" t="inlineStr">
+    <row r="19">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>코카콜라</t>
         </is>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C19" s="27" t="n">
         <v>62</v>
       </c>
-      <c r="D16" s="10">
-        <f>(C16-C7)/C7</f>
-        <v/>
-      </c>
-      <c r="E16" s="27" t="n">
-        <v>59.39</v>
-      </c>
-      <c r="F16" s="10">
-        <f>(E16-C7)/C7</f>
-        <v/>
-      </c>
-      <c r="G16" s="7" t="n">
+      <c r="D19" s="10">
+        <f>(C19-C7)/C7</f>
+        <v/>
+      </c>
+      <c r="E19" s="27" t="n">
+        <v>63.14</v>
+      </c>
+      <c r="F19" s="10">
+        <f>(E19-C7)/C7</f>
+        <v/>
+      </c>
+      <c r="G19" s="7" t="n">
         <v>-0.1</v>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>할인찬스</t>
         </is>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J19" s="7" t="n">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="18" t="inlineStr">
+    <row r="20">
+      <c r="B20" s="18" t="inlineStr">
         <is>
           <t>펩시</t>
         </is>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C20" s="27" t="n">
         <v>172.85</v>
       </c>
-      <c r="D17" s="10">
-        <f>(C17-C8)/C8</f>
-        <v/>
-      </c>
-      <c r="E17" s="27" t="n">
-        <v>179.07</v>
-      </c>
-      <c r="F17" s="10">
-        <f>(E17-C8)/C8</f>
-        <v/>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="D20" s="10">
+        <f>(C20-C8)/C8</f>
+        <v/>
+      </c>
+      <c r="E20" s="27" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F20" s="10">
+        <f>(E20-C8)/C8</f>
+        <v/>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>매도추천</t>
         </is>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J20" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="19" t="inlineStr">
+    <row r="21">
+      <c r="B21" s="19" t="inlineStr">
         <is>
           <t>ASML</t>
         </is>
       </c>
-      <c r="C18" s="27" t="n">
+      <c r="C21" s="27" t="n">
         <v>469.92</v>
       </c>
-      <c r="D18" s="10">
-        <f>(C18-C9)/C9</f>
-        <v/>
-      </c>
-      <c r="E18" s="27" t="n">
-        <v>484.09</v>
-      </c>
-      <c r="F18" s="10">
-        <f>(E18-C9)/C9</f>
-        <v/>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
+      <c r="D21" s="10">
+        <f>(C21-C9)/C9</f>
+        <v/>
+      </c>
+      <c r="E21" s="27" t="n">
+        <v>597.7</v>
+      </c>
+      <c r="F21" s="10">
+        <f>(E21-C9)/C9</f>
+        <v/>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="n">
+    <row r="22">
+      <c r="A22" s="11" t="n">
         <v>408.71</v>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>QQQ</t>
         </is>
       </c>
-      <c r="C19" s="27" t="n">
+      <c r="C22" s="27" t="n">
         <v>299.4</v>
       </c>
-      <c r="D19" s="10">
-        <f>(C19-$A$19)/$A$19</f>
-        <v/>
-      </c>
-      <c r="E19" s="27" t="n">
-        <v>277.93</v>
-      </c>
-      <c r="F19" s="10">
-        <f>(E19-$A$19)/$A$19</f>
-        <v/>
-      </c>
-      <c r="G19" s="7">
+      <c r="D22" s="10">
+        <f>(C22-$A$22)/$A$22</f>
+        <v/>
+      </c>
+      <c r="E22" s="27" t="n">
+        <v>282.04</v>
+      </c>
+      <c r="F22" s="10">
+        <f>(E22-$A$22)/$A$22</f>
+        <v/>
+      </c>
+      <c r="G22" s="7">
         <f>(4895-5000)/5000</f>
         <v/>
       </c>
-      <c r="I19" s="14" t="inlineStr">
+      <c r="I22" s="14" t="inlineStr">
         <is>
           <t>2022 금리인상 : 1월1일 시작됨. (1회 급락 완료 / 1회 조정 완료 / 2회 급락 진행중)</t>
-        </is>
-      </c>
-      <c r="J19" s="12" t="n"/>
-      <c r="K19" s="12" t="n"/>
-      <c r="L19" s="12" t="n"/>
-      <c r="M19" s="12" t="n"/>
-      <c r="N19" s="12" t="n"/>
-      <c r="O19" s="12" t="n"/>
-      <c r="P19" s="12" t="n"/>
-      <c r="Q19" s="12" t="n"/>
-      <c r="R19" s="12" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="n">
-        <v>94.54000000000001</v>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>QLD</t>
-        </is>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D20" s="10">
-        <f>(C20-$A$20)/$A$20</f>
-        <v/>
-      </c>
-      <c r="E20" s="27" t="n">
-        <v>39.18</v>
-      </c>
-      <c r="F20" s="10">
-        <f>(E20-$A$20)/$A$20</f>
-        <v/>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="I20" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -&gt; 11월 금리 인상이 마지막이고, 12월은 유지로 예상됨. 11월에 레버리지 ㄱㄱ</t>
-        </is>
-      </c>
-      <c r="J20" s="12" t="n"/>
-      <c r="K20" s="12" t="n"/>
-      <c r="L20" s="12" t="n"/>
-      <c r="M20" s="12" t="n"/>
-      <c r="N20" s="12" t="n"/>
-      <c r="O20" s="12" t="n"/>
-      <c r="P20" s="12" t="n"/>
-      <c r="Q20" s="12" t="n"/>
-      <c r="R20" s="12" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="n">
-        <v>479.98</v>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>SPY</t>
-        </is>
-      </c>
-      <c r="C21" s="27" t="n">
-        <v>396.42</v>
-      </c>
-      <c r="D21" s="10">
-        <f>(C21-$A$21)/$A$21</f>
-        <v/>
-      </c>
-      <c r="E21" s="27" t="n">
-        <v>382.02</v>
-      </c>
-      <c r="F21" s="10">
-        <f>(E21-$A$21)/$A$21</f>
-        <v/>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" s="14" t="inlineStr">
-        <is>
-          <t>2016 금리인상 : -19%(현시점 327달러) 까지 갔음, 2회의 급락과 2회의 조정, 제자리로 돌아오는데 1년 걸림</t>
-        </is>
-      </c>
-      <c r="J21" s="12" t="n"/>
-      <c r="K21" s="12" t="n"/>
-      <c r="L21" s="12" t="n"/>
-      <c r="M21" s="12" t="n"/>
-      <c r="N21" s="12" t="n"/>
-      <c r="O21" s="12" t="n"/>
-      <c r="P21" s="12" t="n"/>
-      <c r="Q21" s="12" t="n"/>
-      <c r="R21" s="12" t="n"/>
-    </row>
-    <row r="22">
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -&gt; 레버리지는 10% 2단계로 1000씩 꾸준히 하되, 분기별로 회복되면 계속 빼줘야함</t>
         </is>
       </c>
       <c r="J22" s="12" t="n"/>
@@ -1311,12 +1288,112 @@
       <c r="Q22" s="12" t="n"/>
       <c r="R22" s="12" t="n"/>
     </row>
+    <row r="23">
+      <c r="A23" s="11" t="n">
+        <v>94.54000000000001</v>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>QLD</t>
+        </is>
+      </c>
+      <c r="C23" s="27" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D23" s="10">
+        <f>(C23-$A$23)/$A$23</f>
+        <v/>
+      </c>
+      <c r="E23" s="27" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="F23" s="10">
+        <f>(E23-$A$23)/$A$23</f>
+        <v/>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="I23" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -&gt; 11월 금리 인상이 마지막이고, 12월은 유지로 예상됨. 11월에 레버리지 ㄱㄱ</t>
+        </is>
+      </c>
+      <c r="J23" s="12" t="n"/>
+      <c r="K23" s="12" t="n"/>
+      <c r="L23" s="12" t="n"/>
+      <c r="M23" s="12" t="n"/>
+      <c r="N23" s="12" t="n"/>
+      <c r="O23" s="12" t="n"/>
+      <c r="P23" s="12" t="n"/>
+      <c r="Q23" s="12" t="n"/>
+      <c r="R23" s="12" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="n">
+        <v>479.98</v>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>396.42</v>
+      </c>
+      <c r="D24" s="10">
+        <f>(C24-$A$24)/$A$24</f>
+        <v/>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>393.28</v>
+      </c>
+      <c r="F24" s="10">
+        <f>(E24-$A$24)/$A$24</f>
+        <v/>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="14" t="inlineStr">
+        <is>
+          <t>2016 금리인상 : -19%(현시점 327달러) 까지 갔음, 2회의 급락과 2회의 조정, 제자리로 돌아오는데 1년 걸림</t>
+        </is>
+      </c>
+      <c r="J24" s="12" t="n"/>
+      <c r="K24" s="12" t="n"/>
+      <c r="L24" s="12" t="n"/>
+      <c r="M24" s="12" t="n"/>
+      <c r="N24" s="12" t="n"/>
+      <c r="O24" s="12" t="n"/>
+      <c r="P24" s="12" t="n"/>
+      <c r="Q24" s="12" t="n"/>
+      <c r="R24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -&gt; 레버리지는 10% 2단계로 1000씩 꾸준히 하되, 분기별로 회복되면 계속 빼줘야함</t>
+        </is>
+      </c>
+      <c r="J25" s="12" t="n"/>
+      <c r="K25" s="12" t="n"/>
+      <c r="L25" s="12" t="n"/>
+      <c r="M25" s="12" t="n"/>
+      <c r="N25" s="12" t="n"/>
+      <c r="O25" s="12" t="n"/>
+      <c r="P25" s="12" t="n"/>
+      <c r="Q25" s="12" t="n"/>
+      <c r="R25" s="12" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F12:G12 G18:G21 D12:D21 F13:F21 G13:G16">
+  <conditionalFormatting sqref="F15:G15 G21:G24 D15:D24 F16:F24 G16:G19">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
@@ -1325,7 +1402,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J17 D12:D20 F12:F20">
+  <conditionalFormatting sqref="J15:J20 D15:D23 F15:F23">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -1334,7 +1411,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D21 F12:F21">
+  <conditionalFormatting sqref="D15:D24 F15:F24">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
